--- a/NPLF Twitter Q1andQ2.xlsx
+++ b/NPLF Twitter Q1andQ2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0278B555-176D-714F-9168-89CF375A40AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F170E2-A799-AD4F-AA35-48C3F6E077DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="460" windowWidth="28040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155:T178"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13727,6 +13727,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
